--- a/ModelCatalogueCorePluginTestApp/test/integration/resources/org/modelcatalogue/integration/excel/loinc250.xlsx
+++ b/ModelCatalogueCorePluginTestApp/test/integration/resources/org/modelcatalogue/integration/excel/loinc250.xlsx
@@ -4463,33 +4463,33 @@
   <dimension ref="A1:AT251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="148.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
     <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" customWidth="1"/>
     <col min="23" max="23" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -4503,7 +4503,7 @@
     <col min="33" max="33" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="17" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="29.85546875" customWidth="1"/>
     <col min="37" max="37" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="25.7109375" bestFit="1" customWidth="1"/>
